--- a/v3/table/FieldType.xlsx
+++ b/v3/table/FieldType.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="9000"/>
+    <workbookView windowWidth="28695" windowHeight="15420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>输入字段</t>
   </si>
@@ -25,6 +25,9 @@
     <t>C#字段</t>
   </si>
   <si>
+    <t>默认值</t>
+  </si>
+  <si>
     <t>int32</t>
   </si>
   <si>
@@ -68,18 +71,6 @@
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>字符串</t>
-  </si>
-  <si>
-    <t>整形</t>
-  </si>
-  <si>
-    <t>浮点</t>
-  </si>
-  <si>
-    <t>布尔</t>
   </si>
 </sst>
 </file>
@@ -87,9 +78,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -114,6 +105,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -129,34 +134,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -165,6 +148,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -172,42 +163,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -219,8 +179,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,6 +202,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -242,16 +233,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,187 +263,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,6 +468,15 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,21 +511,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -540,26 +525,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,6 +545,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -586,10 +577,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -598,133 +589,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1057,10 +1048,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1082,7 +1073,9 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -1090,15 +1083,17 @@
     </row>
     <row r="2" ht="16.5" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1106,15 +1101,17 @@
     </row>
     <row r="3" ht="16.5" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1122,15 +1119,17 @@
     </row>
     <row r="4" ht="16.5" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1138,15 +1137,17 @@
     </row>
     <row r="5" ht="16.5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1154,15 +1155,17 @@
     </row>
     <row r="6" ht="16.5" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1170,15 +1173,17 @@
     </row>
     <row r="7" ht="16.5" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1186,15 +1191,17 @@
     </row>
     <row r="8" ht="16.5" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1202,15 +1209,17 @@
     </row>
     <row r="9" ht="16.5" spans="1:8">
       <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1218,15 +1227,17 @@
     </row>
     <row r="10" ht="16.5" spans="1:8">
       <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1234,89 +1245,33 @@
     </row>
     <row r="11" ht="16.5" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f>"false"</f>
+        <v>false</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" ht="16.5" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-    </row>
-    <row r="13" ht="16.5" spans="1:5">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" ht="16.5" spans="1:8">
-      <c r="A14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" ht="16.5" spans="1:8">
-      <c r="A15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" ht="16.5" spans="1:6">
-      <c r="A16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/v3/table/FieldType.xlsx
+++ b/v3/table/FieldType.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="15420"/>
+    <workbookView windowWidth="28080" windowHeight="15420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1051,7 +1051,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/v3/table/FieldType.xlsx
+++ b/v3/table/FieldType.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="15420"/>
+    <workbookView windowWidth="19095" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>输入字段</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>bool</t>
+  </si>
+  <si>
+    <t>FALSE</t>
   </si>
   <si>
     <t>string</t>
@@ -78,9 +81,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -105,12 +108,66 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -118,54 +175,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,16 +191,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,52 +250,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -263,19 +266,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,163 +392,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,24 +477,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,26 +497,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,7 +520,40 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,10 +580,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -589,137 +592,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -727,6 +730,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1051,7 +1057,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1253,22 +1259,21 @@
       <c r="C11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="2" t="str">
-        <f>"false"</f>
-        <v>false</v>
+      <c r="D11" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" ht="16.5" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
